--- a/api_test_Case/case_excel/test_cese.xlsx
+++ b/api_test_Case/case_excel/test_cese.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>TEST_ID</t>
   </si>
@@ -42,17 +42,35 @@
     <t>eq</t>
   </si>
   <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>variate</t>
+  </si>
+  <si>
+    <t>isshow</t>
+  </si>
+  <si>
+    <t>test_set</t>
+  </si>
+  <si>
+    <t>eq_result</t>
+  </si>
+  <si>
     <t>api_001</t>
   </si>
   <si>
     <t>登录</t>
+  </si>
+  <si>
+    <t>Post</t>
   </si>
   <si>
     <t>{
     "Content-Type": "application/json"}</t>
   </si>
   <si>
-    <t>/authorize/memberLogin</t>
+    <t>/post</t>
   </si>
   <si>
     <t>{
@@ -62,7 +80,16 @@
  "clientVersion": "20321"}</t>
   </si>
   <si>
-    <t>[,200]</t>
+    <t>201,loginPwd,:=phoneNo</t>
+  </si>
+  <si>
+    <t>header:=Referer:=http://www.biaodaa.com/</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>[False, True, False]</t>
   </si>
   <si>
     <t>api_002</t>
@@ -73,9 +100,15 @@
   <si>
     <t>{
  "loginPwd": "7c222fb2927d828af22f592134e8932480637c0d",
- "phoneNo": "15576361737",
- "channel": "1002",
+ "phoneNo": "{{wo}}",
+ "channel": "{{channel}}",
  "clientVersion": "20322"}</t>
+  </si>
+  <si>
+    <t>response-data:=origin:="origin": "(.*?)"</t>
+  </si>
+  <si>
+    <t>[False]</t>
   </si>
   <si>
     <t>api_003</t>
@@ -94,25 +127,31 @@
     <t>api_004</t>
   </si>
   <si>
-    <t>登录4_end</t>
-  </si>
-  <si>
-    <t>{
- "loginPwd": "7c222fb2927d828af22f592134e8932480637c0d",
- "phoneNo": "15576361737",
- "channel": "1002",
- "clientVersion": "20324"}</t>
+    <t>测试集</t>
+  </si>
+  <si>
+    <t>http://api.biaodaa.com</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>api_001,api_002,api_003</t>
+  </si>
+  <si>
+    <t>{'api_001': [False, True, False], 'api_002': [False], 'api_003': [False]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -134,6 +173,74 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -148,25 +255,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,98 +306,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,187 +323,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,6 +527,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -498,26 +552,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,17 +571,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +587,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,159 +619,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -740,6 +780,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1089,144 +1132,201 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="11.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="26.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="45.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="68" customWidth="1"/>
+    <col min="2" max="2" width="11.5583333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.4416666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="44.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="41.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" ht="141" customHeight="1" spans="1:8">
+    <row r="2" ht="141" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" ht="100.8" spans="1:8">
+    <row r="3" ht="94.5" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6">
+        <v>200</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" ht="100.8" spans="1:8">
+    <row r="4" ht="94.5" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6">
+        <v>202</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" ht="100.8" spans="1:8">
+    <row r="5" ht="94.5" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="/authorize/memberLogin"/>
-    <hyperlink ref="F3" r:id="rId1" display="/authorize/memberLogin"/>
-    <hyperlink ref="F4" r:id="rId1" display="/authorize/memberLogin"/>
-    <hyperlink ref="F5" r:id="rId1" display="/authorize/memberLogin"/>
+    <hyperlink ref="F2" r:id="rId1" display="/post"/>
+    <hyperlink ref="F3" r:id="rId1" display="/post"/>
+    <hyperlink ref="F4" r:id="rId1" display="/post"/>
+    <hyperlink ref="F5" r:id="rId1" display="http://api.biaodaa.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1243,7 +1343,7 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="1"/>
@@ -1264,7 +1364,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
